--- a/Homework 3/6dot2.xlsx
+++ b/Homework 3/6dot2.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>DAY</t>
   </si>
@@ -63,6 +63,15 @@
   </si>
   <si>
     <t>CUSUM</t>
+  </si>
+  <si>
+    <t>Summer Average</t>
+  </si>
+  <si>
+    <t>Increasing</t>
+  </si>
+  <si>
+    <t>Decreasing</t>
   </si>
 </sst>
 </file>
@@ -114,7 +123,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1056,11 +1079,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="101221504"/>
-        <c:axId val="101223040"/>
+        <c:axId val="68584576"/>
+        <c:axId val="68586496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="101221504"/>
+        <c:axId val="68584576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="43348"/>
@@ -1091,12 +1114,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101223040"/>
+        <c:crossAx val="68586496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="101223040"/>
+        <c:axId val="68586496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="92"/>
@@ -1131,7 +1154,605 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101221504"/>
+        <c:crossAx val="68584576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average Summer Temp</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> by Year</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13055876458219459"/>
+          <c:y val="0.16404506454237081"/>
+          <c:w val="0.82906600089622939"/>
+          <c:h val="0.65561695138984821"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Avg. Summer Temp</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$U$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$128:$U$128</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>89.833333333333329</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86.433333333333337</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88.11666666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>89.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91.533333333333331</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>86.916666666666671</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>89.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>86.15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>86.466666666666669</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>87.05</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90.166666666666671</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>91.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>87.683333333333337</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>87.38333333333334</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>91.45</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>92.766666666666666</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>91.083333333333329</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>84.716666666666669</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>87.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>89.766666666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Increasing CUSUM</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$U$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$129:$U$129</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5.5833333333325186E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.755833333333328</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.38916666666666799</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.9449999999999932</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.6724999999999994</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.6616666666666617</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.9674999999999869</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.90666666666665208</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Decreasing CUSUM</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$U$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$130:$U$130</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3441666666666663</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0050000000000097</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.86083333333333201</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6274999999999977</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9383333333333326</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6658333333333388</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2766666666666708</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.4166666666666288E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.48833333333332973</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.0608333333333348</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.4383333333333326</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.4491666666666703</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="75948800"/>
+        <c:axId val="75859840"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="75948800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Year</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="75859840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="75859840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Temperature (degF)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="75948800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1180,6 +1801,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1479,15 +2130,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB124"/>
+  <dimension ref="A1:AB132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AL15" sqref="AL15"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="B134" sqref="B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="21" width="5" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="5" customWidth="1"/>
   </cols>
@@ -10555,10 +11206,348 @@
         <v>610.56739130434948</v>
       </c>
     </row>
+    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B127">
+        <v>1996</v>
+      </c>
+      <c r="C127">
+        <v>1997</v>
+      </c>
+      <c r="D127">
+        <v>1998</v>
+      </c>
+      <c r="E127">
+        <v>1999</v>
+      </c>
+      <c r="F127">
+        <v>2000</v>
+      </c>
+      <c r="G127">
+        <v>2001</v>
+      </c>
+      <c r="H127">
+        <v>2002</v>
+      </c>
+      <c r="I127">
+        <v>2003</v>
+      </c>
+      <c r="J127">
+        <v>2004</v>
+      </c>
+      <c r="K127">
+        <v>2005</v>
+      </c>
+      <c r="L127">
+        <v>2006</v>
+      </c>
+      <c r="M127">
+        <v>2007</v>
+      </c>
+      <c r="N127">
+        <v>2008</v>
+      </c>
+      <c r="O127">
+        <v>2009</v>
+      </c>
+      <c r="P127">
+        <v>2010</v>
+      </c>
+      <c r="Q127">
+        <v>2011</v>
+      </c>
+      <c r="R127">
+        <v>2012</v>
+      </c>
+      <c r="S127">
+        <v>2013</v>
+      </c>
+      <c r="T127">
+        <v>2014</v>
+      </c>
+      <c r="U127">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>4</v>
+      </c>
+      <c r="B128">
+        <f>AVERAGE(B2:B61)</f>
+        <v>89.833333333333329</v>
+      </c>
+      <c r="C128">
+        <f t="shared" ref="C128:U128" si="4">AVERAGE(C2:C61)</f>
+        <v>86.433333333333337</v>
+      </c>
+      <c r="D128">
+        <f t="shared" si="4"/>
+        <v>88.11666666666666</v>
+      </c>
+      <c r="E128">
+        <f t="shared" si="4"/>
+        <v>89.7</v>
+      </c>
+      <c r="F128">
+        <f t="shared" si="4"/>
+        <v>91.533333333333331</v>
+      </c>
+      <c r="G128">
+        <f t="shared" si="4"/>
+        <v>86.916666666666671</v>
+      </c>
+      <c r="H128">
+        <f t="shared" si="4"/>
+        <v>89.6</v>
+      </c>
+      <c r="I128">
+        <f t="shared" si="4"/>
+        <v>86.15</v>
+      </c>
+      <c r="J128">
+        <f t="shared" si="4"/>
+        <v>86.466666666666669</v>
+      </c>
+      <c r="K128">
+        <f t="shared" si="4"/>
+        <v>87.05</v>
+      </c>
+      <c r="L128">
+        <f t="shared" si="4"/>
+        <v>90.166666666666671</v>
+      </c>
+      <c r="M128">
+        <f t="shared" si="4"/>
+        <v>91.333333333333329</v>
+      </c>
+      <c r="N128">
+        <f t="shared" si="4"/>
+        <v>87.683333333333337</v>
+      </c>
+      <c r="O128">
+        <f t="shared" si="4"/>
+        <v>87.38333333333334</v>
+      </c>
+      <c r="P128">
+        <f t="shared" si="4"/>
+        <v>91.45</v>
+      </c>
+      <c r="Q128">
+        <f t="shared" si="4"/>
+        <v>92.766666666666666</v>
+      </c>
+      <c r="R128">
+        <f t="shared" si="4"/>
+        <v>91.083333333333329</v>
+      </c>
+      <c r="S128">
+        <f t="shared" si="4"/>
+        <v>84.716666666666669</v>
+      </c>
+      <c r="T128">
+        <f t="shared" si="4"/>
+        <v>87.4</v>
+      </c>
+      <c r="U128">
+        <f t="shared" si="4"/>
+        <v>89.766666666666666</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>5</v>
+      </c>
+      <c r="B129">
+        <f>MAX(0,0+(B128-AVERAGE($B$128:$U$128)-$B$131))</f>
+        <v>5.5833333333325186E-2</v>
+      </c>
+      <c r="C129">
+        <f>MAX(0,B129+(C128-AVERAGE($B$128:$U$128)-$B$131))</f>
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <f t="shared" ref="D129:U129" si="5">MAX(0,C129+(D128-AVERAGE($B$128:$U$128)-$B$131))</f>
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <f t="shared" si="5"/>
+        <v>1.755833333333328</v>
+      </c>
+      <c r="G129">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <f t="shared" si="5"/>
+        <v>0.38916666666666799</v>
+      </c>
+      <c r="M129">
+        <f t="shared" si="5"/>
+        <v>1.9449999999999932</v>
+      </c>
+      <c r="N129">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O129">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P129">
+        <f t="shared" si="5"/>
+        <v>1.6724999999999994</v>
+      </c>
+      <c r="Q129">
+        <f t="shared" si="5"/>
+        <v>4.6616666666666617</v>
+      </c>
+      <c r="R129">
+        <f t="shared" si="5"/>
+        <v>5.9674999999999869</v>
+      </c>
+      <c r="S129">
+        <f t="shared" si="5"/>
+        <v>0.90666666666665208</v>
+      </c>
+      <c r="T129">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U129">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>6</v>
+      </c>
+      <c r="B130">
+        <f>MAX(0,0+(AVERAGE($B$128:$U$128)-B128-$B$131))</f>
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <f>MAX(0,B130+(AVERAGE($B$128:$U$128)-C128-$B$131))</f>
+        <v>1.3441666666666663</v>
+      </c>
+      <c r="D130">
+        <f t="shared" ref="D130:U130" si="6">MAX(0,C130+(AVERAGE($B$128:$U$128)-D128-$B$131))</f>
+        <v>1.0050000000000097</v>
+      </c>
+      <c r="E130">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <f t="shared" si="6"/>
+        <v>0.86083333333333201</v>
+      </c>
+      <c r="H130">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <f t="shared" si="6"/>
+        <v>1.6274999999999977</v>
+      </c>
+      <c r="J130">
+        <f t="shared" si="6"/>
+        <v>2.9383333333333326</v>
+      </c>
+      <c r="K130">
+        <f t="shared" si="6"/>
+        <v>3.6658333333333388</v>
+      </c>
+      <c r="L130">
+        <f t="shared" si="6"/>
+        <v>1.2766666666666708</v>
+      </c>
+      <c r="M130">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <f t="shared" si="6"/>
+        <v>9.4166666666666288E-2</v>
+      </c>
+      <c r="O130">
+        <f t="shared" si="6"/>
+        <v>0.48833333333332973</v>
+      </c>
+      <c r="P130">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q130">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R130">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S130">
+        <f t="shared" si="6"/>
+        <v>3.0608333333333348</v>
+      </c>
+      <c r="T130">
+        <f t="shared" si="6"/>
+        <v>3.4383333333333326</v>
+      </c>
+      <c r="U130">
+        <f t="shared" si="6"/>
+        <v>1.4491666666666703</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>1</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>2</v>
+      </c>
+      <c r="B132">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="X3:X124">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
       <formula>$AB$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B129:U130">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>$B$132</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
